--- a/AroundMe.xlsx
+++ b/AroundMe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoryNeary\Documents\GitHub\Chilterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C9A56D-E9F3-4737-AC83-9D68E29786E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA2B4F-7909-445F-B378-DF184CFD80DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4855B9BF-44E8-4684-AFED-914DEE2AFAC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Description</t>
   </si>
@@ -674,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B42022E-372C-43AE-B4E0-A8A60C8D85DB}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -860,6 +860,11 @@
       <c r="G8" t="str">
         <f>AroundMe[[#This Row],[BaseURL]]&amp;AroundMe[[#This Row],[Filename]]&amp;".jpg"</f>
         <v>https://github.com/roryneary/Chilterns/raw/master/RedLion8.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
